--- a/Data/Processed/Angiosperms/missing_powo_ipni/Hydrocharitaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Hydrocharitaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
